--- a/dados/csv_tratado/dados_21.xlsx
+++ b/dados/csv_tratado/dados_21.xlsx
@@ -644,7 +644,7 @@
         <v>-1</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="4">
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="6">
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="7">
@@ -1107,7 +1107,7 @@
         <v>-1</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="8">
@@ -1200,7 +1200,7 @@
         <v>-2</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>-1</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="10">
@@ -1384,7 +1384,7 @@
         <v>-1</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="11">
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="12">
@@ -1568,7 +1568,7 @@
         <v>-2</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="13">
@@ -1661,7 +1661,7 @@
         <v>-1</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="14">
@@ -1754,7 +1754,7 @@
         <v>-1</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="15">
@@ -1847,7 +1847,7 @@
         <v>-2</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="16">
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="17">
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="18">
@@ -2122,7 +2122,7 @@
         <v>-1</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="19">
@@ -2215,7 +2215,7 @@
         <v>-1</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="20">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="21">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="22">
@@ -2490,7 +2490,7 @@
         <v>-1</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="23">
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="24">
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="25">
@@ -2767,7 +2767,7 @@
         <v>-1</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="26">
@@ -2858,7 +2858,7 @@
         <v>-1</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="27">
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="28">
@@ -3044,7 +3044,7 @@
         <v>-2</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="29">
@@ -3137,7 +3137,7 @@
         <v>-1</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="30">
@@ -3230,7 +3230,7 @@
         <v>-1</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="31">
@@ -3321,7 +3321,7 @@
         <v>-1</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="32">
@@ -3412,7 +3412,7 @@
         <v>-1</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="33">
@@ -3503,7 +3503,7 @@
         <v>-1</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="34">
@@ -3586,7 +3586,7 @@
         <v>-2</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="35">
@@ -3679,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="36">
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="37">
@@ -3863,7 +3863,7 @@
         <v>-1</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="38">
@@ -3956,7 +3956,7 @@
         <v>-1</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="39">
@@ -4049,7 +4049,7 @@
         <v>-1</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="40">
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="41">
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="42">
@@ -4328,7 +4328,7 @@
         <v>-2</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="43">
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="44">
@@ -4514,7 +4514,7 @@
         <v>-1</v>
       </c>
       <c r="W44" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="45">
@@ -4607,7 +4607,7 @@
         <v>-1</v>
       </c>
       <c r="W45" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="46">
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="47">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="48">
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="W48" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="49">
@@ -4977,7 +4977,7 @@
         <v>-2</v>
       </c>
       <c r="W49" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="50">
@@ -5070,7 +5070,7 @@
         <v>-1</v>
       </c>
       <c r="W50" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="51">
@@ -5161,7 +5161,7 @@
         <v>-1</v>
       </c>
       <c r="W51" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="52">
@@ -5254,7 +5254,7 @@
         <v>-2</v>
       </c>
       <c r="W52" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="53">
@@ -5347,7 +5347,7 @@
         <v>-1</v>
       </c>
       <c r="W53" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="54">
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="W54" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="55">
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="56">
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="57">
@@ -5717,7 +5717,7 @@
         <v>-1</v>
       </c>
       <c r="W57" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="58">
@@ -5808,7 +5808,7 @@
         <v>-1</v>
       </c>
       <c r="W58" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="59">
@@ -5901,7 +5901,7 @@
         <v>-1</v>
       </c>
       <c r="W59" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="60">
@@ -5994,7 +5994,7 @@
         <v>-1</v>
       </c>
       <c r="W60" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="61">
@@ -6087,7 +6087,7 @@
         <v>-1</v>
       </c>
       <c r="W61" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="62">
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="W62" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="63">
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="W63" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="64">
@@ -6366,7 +6366,7 @@
         <v>-1</v>
       </c>
       <c r="W64" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="65">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="W65" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="66">
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="67">
@@ -6641,7 +6641,7 @@
         <v>-1</v>
       </c>
       <c r="W67" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="68">
@@ -6732,7 +6732,7 @@
         <v>-1</v>
       </c>
       <c r="W68" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="69">
@@ -6825,7 +6825,7 @@
         <v>-2</v>
       </c>
       <c r="W69" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="70">
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="W70" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="71">
@@ -7009,7 +7009,7 @@
         <v>-1</v>
       </c>
       <c r="W71" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="72">
@@ -7102,7 +7102,7 @@
         <v>-1</v>
       </c>
       <c r="W72" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="73">
@@ -7193,7 +7193,7 @@
         <v>-1</v>
       </c>
       <c r="W73" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="74">
@@ -7284,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="W74" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="75">
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="W75" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="76">
@@ -7470,7 +7470,7 @@
         <v>-1</v>
       </c>
       <c r="W76" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="77">
@@ -7563,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="W77" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="78">
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="W78" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="79">
@@ -7749,7 +7749,7 @@
         <v>-1</v>
       </c>
       <c r="W79" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="80">
@@ -7840,7 +7840,7 @@
         <v>-1</v>
       </c>
       <c r="W80" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="81">
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="W81" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="82">
@@ -8026,7 +8026,7 @@
         <v>-1</v>
       </c>
       <c r="W82" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="83">
@@ -8117,7 +8117,7 @@
         <v>-1</v>
       </c>
       <c r="W83" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="84">
@@ -8210,7 +8210,7 @@
         <v>-1</v>
       </c>
       <c r="W84" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="85">
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="W85" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="86">
@@ -8396,7 +8396,7 @@
         <v>-2</v>
       </c>
       <c r="W86" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="87">
@@ -8487,7 +8487,7 @@
         <v>-1</v>
       </c>
       <c r="W87" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="88">
@@ -8580,7 +8580,7 @@
         <v>-1</v>
       </c>
       <c r="W88" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="89">
@@ -8673,7 +8673,7 @@
         <v>-1</v>
       </c>
       <c r="W89" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="90">
@@ -8764,7 +8764,7 @@
         <v>-1</v>
       </c>
       <c r="W90" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="91">
@@ -8857,7 +8857,7 @@
         <v>-2</v>
       </c>
       <c r="W91" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="92">
@@ -8948,7 +8948,7 @@
         <v>-1</v>
       </c>
       <c r="W92" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="93">
@@ -9039,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="W93" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="94">
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="W94" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="95">
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="W95" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="96">
@@ -9316,7 +9316,7 @@
         <v>-1</v>
       </c>
       <c r="W96" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="97">
@@ -9409,7 +9409,7 @@
         <v>-1</v>
       </c>
       <c r="W97" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="98">
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="W98" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="99">
@@ -9595,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="W99" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="100">
@@ -9688,7 +9688,7 @@
         <v>-1</v>
       </c>
       <c r="W100" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="101">
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="W101" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="102">
@@ -9872,7 +9872,7 @@
         <v>-1</v>
       </c>
       <c r="W102" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="103">
@@ -9965,7 +9965,7 @@
         <v>-1</v>
       </c>
       <c r="W103" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="104">
@@ -10058,7 +10058,7 @@
         <v>-1</v>
       </c>
       <c r="W104" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="105">
@@ -10151,7 +10151,7 @@
         <v>-1</v>
       </c>
       <c r="W105" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="106">
@@ -10244,7 +10244,7 @@
         <v>0</v>
       </c>
       <c r="W106" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="107">
@@ -10337,7 +10337,7 @@
         <v>-1</v>
       </c>
       <c r="W107" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="108">
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="W108" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="109">
@@ -10521,7 +10521,7 @@
         <v>-1</v>
       </c>
       <c r="W109" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="110">
@@ -10612,7 +10612,7 @@
         <v>-1</v>
       </c>
       <c r="W110" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="111">
@@ -10705,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="W111" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="112">
@@ -10798,7 +10798,7 @@
         <v>-1</v>
       </c>
       <c r="W112" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="113">
@@ -10891,7 +10891,7 @@
         <v>-2</v>
       </c>
       <c r="W113" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="114">
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="W114" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="115">
@@ -11075,7 +11075,7 @@
         <v>-1</v>
       </c>
       <c r="W115" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="116">
@@ -11168,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="W116" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="117">
@@ -11261,7 +11261,7 @@
         <v>-2</v>
       </c>
       <c r="W117" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="118">
@@ -11352,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="W118" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="119">
@@ -11445,7 +11445,7 @@
         <v>-1</v>
       </c>
       <c r="W119" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="120">
@@ -11538,7 +11538,7 @@
         <v>-1</v>
       </c>
       <c r="W120" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="121">
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="W121" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="122">
@@ -11722,7 +11722,7 @@
         <v>-1</v>
       </c>
       <c r="W122" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="123">
@@ -11813,7 +11813,7 @@
         <v>-1</v>
       </c>
       <c r="W123" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="124">
@@ -11904,7 +11904,7 @@
         <v>-1</v>
       </c>
       <c r="W124" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="125">
@@ -11997,7 +11997,7 @@
         <v>0</v>
       </c>
       <c r="W125" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="126">
@@ -12088,7 +12088,7 @@
         <v>-1</v>
       </c>
       <c r="W126" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="127">
@@ -12179,7 +12179,7 @@
         <v>-1</v>
       </c>
       <c r="W127" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="128">
@@ -12270,7 +12270,7 @@
         <v>-1</v>
       </c>
       <c r="W128" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="129">
@@ -12363,7 +12363,7 @@
         <v>-4</v>
       </c>
       <c r="W129" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="130">
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="W130" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="131">
@@ -12549,7 +12549,7 @@
         <v>0</v>
       </c>
       <c r="W131" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="132">
@@ -12642,7 +12642,7 @@
         <v>0</v>
       </c>
       <c r="W132" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="133">
@@ -12735,7 +12735,7 @@
         <v>-1</v>
       </c>
       <c r="W133" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="134">
@@ -12826,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="W134" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="135">
@@ -12919,7 +12919,7 @@
         <v>-1</v>
       </c>
       <c r="W135" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="136">
@@ -13012,7 +13012,7 @@
         <v>-2</v>
       </c>
       <c r="W136" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="137">
@@ -13105,7 +13105,7 @@
         <v>-1</v>
       </c>
       <c r="W137" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="138">
@@ -13198,7 +13198,7 @@
         <v>-2</v>
       </c>
       <c r="W138" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="139">
@@ -13289,7 +13289,7 @@
         <v>-1</v>
       </c>
       <c r="W139" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="140">
@@ -13380,7 +13380,7 @@
         <v>-1</v>
       </c>
       <c r="W140" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="141">
@@ -13473,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="W141" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="142">
@@ -13566,7 +13566,7 @@
         <v>0</v>
       </c>
       <c r="W142" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="143">
@@ -13657,7 +13657,7 @@
         <v>0</v>
       </c>
       <c r="W143" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="144">
@@ -13750,7 +13750,7 @@
         <v>-1</v>
       </c>
       <c r="W144" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="145">
@@ -13843,7 +13843,7 @@
         <v>0</v>
       </c>
       <c r="W145" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="146">
@@ -13936,7 +13936,7 @@
         <v>-3</v>
       </c>
       <c r="W146" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="147">
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="W147" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="148">
@@ -14120,7 +14120,7 @@
         <v>0</v>
       </c>
       <c r="W148" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="149">
@@ -14213,7 +14213,7 @@
         <v>-1</v>
       </c>
       <c r="W149" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="150">
@@ -14304,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="W150" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="151">
@@ -14397,7 +14397,7 @@
         <v>-1</v>
       </c>
       <c r="W151" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="152">
@@ -14490,7 +14490,7 @@
         <v>-2</v>
       </c>
       <c r="W152" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="153">
@@ -14583,7 +14583,7 @@
         <v>1</v>
       </c>
       <c r="W153" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="154">
@@ -14676,7 +14676,7 @@
         <v>-1</v>
       </c>
       <c r="W154" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="155">
@@ -14769,7 +14769,7 @@
         <v>0</v>
       </c>
       <c r="W155" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="156">
@@ -14862,7 +14862,7 @@
         <v>-2</v>
       </c>
       <c r="W156" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="157">
@@ -14955,7 +14955,7 @@
         <v>0</v>
       </c>
       <c r="W157" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="158">
@@ -15046,7 +15046,7 @@
         <v>0</v>
       </c>
       <c r="W158" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="159">
@@ -15139,7 +15139,7 @@
         <v>-1</v>
       </c>
       <c r="W159" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="160">
@@ -15230,7 +15230,7 @@
         <v>-1</v>
       </c>
       <c r="W160" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="161">
@@ -15323,7 +15323,7 @@
         <v>-1</v>
       </c>
       <c r="W161" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="162">
@@ -15416,7 +15416,7 @@
         <v>-2</v>
       </c>
       <c r="W162" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="163">
@@ -15509,7 +15509,7 @@
         <v>-2</v>
       </c>
       <c r="W163" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="164">
@@ -15602,7 +15602,7 @@
         <v>-1</v>
       </c>
       <c r="W164" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="165">
@@ -15695,7 +15695,7 @@
         <v>-2</v>
       </c>
       <c r="W165" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="166">
@@ -15788,7 +15788,7 @@
         <v>0</v>
       </c>
       <c r="W166" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="167">
@@ -15881,7 +15881,7 @@
         <v>0</v>
       </c>
       <c r="W167" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="168">
@@ -15974,7 +15974,7 @@
         <v>-1</v>
       </c>
       <c r="W168" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="169">
@@ -16067,7 +16067,7 @@
         <v>-1</v>
       </c>
       <c r="W169" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="170">
@@ -16158,7 +16158,7 @@
         <v>0</v>
       </c>
       <c r="W170" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="171">
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="W171" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="172">
@@ -16342,7 +16342,7 @@
         <v>-1</v>
       </c>
       <c r="W172" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="173">
@@ -16433,7 +16433,7 @@
         <v>0</v>
       </c>
       <c r="W173" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="174">
@@ -16526,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="W174" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="175">
@@ -16619,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="W175" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="176">
@@ -16712,7 +16712,7 @@
         <v>0</v>
       </c>
       <c r="W176" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="177">
@@ -16805,7 +16805,7 @@
         <v>-1</v>
       </c>
       <c r="W177" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="178">
@@ -16898,7 +16898,7 @@
         <v>-1</v>
       </c>
       <c r="W178" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="179">
@@ -16991,7 +16991,7 @@
         <v>-1</v>
       </c>
       <c r="W179" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="180">
@@ -17078,7 +17078,7 @@
         <v>0</v>
       </c>
       <c r="W180" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="181">
@@ -17171,7 +17171,7 @@
         <v>0</v>
       </c>
       <c r="W181" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="182">
@@ -17262,7 +17262,7 @@
         <v>-2</v>
       </c>
       <c r="W182" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="183">
@@ -17355,7 +17355,7 @@
         <v>0</v>
       </c>
       <c r="W183" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="184">
@@ -17448,7 +17448,7 @@
         <v>0</v>
       </c>
       <c r="W184" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="185">
@@ -17541,7 +17541,7 @@
         <v>-1</v>
       </c>
       <c r="W185" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="186">
@@ -17634,7 +17634,7 @@
         <v>-2</v>
       </c>
       <c r="W186" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="187">
@@ -17727,7 +17727,7 @@
         <v>-2</v>
       </c>
       <c r="W187" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="188">
@@ -17818,7 +17818,7 @@
         <v>-1</v>
       </c>
       <c r="W188" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="189">
@@ -17911,7 +17911,7 @@
         <v>-2</v>
       </c>
       <c r="W189" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="190">
@@ -18004,7 +18004,7 @@
         <v>-1</v>
       </c>
       <c r="W190" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="191">
@@ -18097,7 +18097,7 @@
         <v>-1</v>
       </c>
       <c r="W191" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="192">
@@ -18190,7 +18190,7 @@
         <v>-1</v>
       </c>
       <c r="W192" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="193">
@@ -18283,7 +18283,7 @@
         <v>-1</v>
       </c>
       <c r="W193" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="194">
@@ -18376,7 +18376,7 @@
         <v>-2</v>
       </c>
       <c r="W194" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="195">
@@ -18469,7 +18469,7 @@
         <v>-1</v>
       </c>
       <c r="W195" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="196">
@@ -18562,7 +18562,7 @@
         <v>0</v>
       </c>
       <c r="W196" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="197">
@@ -18655,7 +18655,7 @@
         <v>-1</v>
       </c>
       <c r="W197" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="198">
@@ -18746,7 +18746,7 @@
         <v>0</v>
       </c>
       <c r="W198" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="199">
@@ -18839,7 +18839,7 @@
         <v>0</v>
       </c>
       <c r="W199" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="200">
@@ -18930,7 +18930,7 @@
         <v>0</v>
       </c>
       <c r="W200" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="201">
@@ -19023,7 +19023,7 @@
         <v>-1</v>
       </c>
       <c r="W201" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="202">
@@ -19116,7 +19116,7 @@
         <v>0</v>
       </c>
       <c r="W202" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="203">
@@ -19209,7 +19209,7 @@
         <v>0</v>
       </c>
       <c r="W203" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="204">
@@ -19302,7 +19302,7 @@
         <v>-2</v>
       </c>
       <c r="W204" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="205">
@@ -19395,7 +19395,7 @@
         <v>-2</v>
       </c>
       <c r="W205" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="206">
@@ -19486,7 +19486,7 @@
         <v>-2</v>
       </c>
       <c r="W206" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="207">
@@ -19577,7 +19577,7 @@
         <v>-2</v>
       </c>
       <c r="W207" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="208">
@@ -19670,7 +19670,7 @@
         <v>-1</v>
       </c>
       <c r="W208" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="209">
@@ -19763,7 +19763,7 @@
         <v>-1</v>
       </c>
       <c r="W209" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="210">
@@ -19854,7 +19854,7 @@
         <v>-2</v>
       </c>
       <c r="W210" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="211">
@@ -19947,7 +19947,7 @@
         <v>-2</v>
       </c>
       <c r="W211" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="212">
@@ -20038,7 +20038,7 @@
         <v>-1</v>
       </c>
       <c r="W212" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="213">
@@ -20131,7 +20131,7 @@
         <v>0</v>
       </c>
       <c r="W213" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="214">
@@ -20222,7 +20222,7 @@
         <v>-2</v>
       </c>
       <c r="W214" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="215">
@@ -20313,7 +20313,7 @@
         <v>-1</v>
       </c>
       <c r="W215" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="216">
@@ -20406,7 +20406,7 @@
         <v>-1</v>
       </c>
       <c r="W216" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="217">
@@ -20499,7 +20499,7 @@
         <v>-1</v>
       </c>
       <c r="W217" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="218">
@@ -20590,7 +20590,7 @@
         <v>-1</v>
       </c>
       <c r="W218" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="219">
@@ -20683,7 +20683,7 @@
         <v>-1</v>
       </c>
       <c r="W219" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="220">
@@ -20776,7 +20776,7 @@
         <v>0</v>
       </c>
       <c r="W220" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="221">
@@ -20869,7 +20869,7 @@
         <v>0</v>
       </c>
       <c r="W221" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="222">
@@ -20962,7 +20962,7 @@
         <v>-1</v>
       </c>
       <c r="W222" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="223">
@@ -21055,7 +21055,7 @@
         <v>-1</v>
       </c>
       <c r="W223" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="224">
@@ -21146,7 +21146,7 @@
         <v>-1</v>
       </c>
       <c r="W224" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="225">
@@ -21239,7 +21239,7 @@
         <v>0</v>
       </c>
       <c r="W225" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="226">
@@ -21332,7 +21332,7 @@
         <v>1</v>
       </c>
       <c r="W226" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="227">
@@ -21423,7 +21423,7 @@
         <v>-2</v>
       </c>
       <c r="W227" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="228">
@@ -21516,7 +21516,7 @@
         <v>0</v>
       </c>
       <c r="W228" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="229">
@@ -21609,7 +21609,7 @@
         <v>1</v>
       </c>
       <c r="W229" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="230">
@@ -21702,7 +21702,7 @@
         <v>0</v>
       </c>
       <c r="W230" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="231">
@@ -21795,7 +21795,7 @@
         <v>-1</v>
       </c>
       <c r="W231" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="232">
@@ -21888,7 +21888,7 @@
         <v>-1</v>
       </c>
       <c r="W232" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="233">
@@ -21981,7 +21981,7 @@
         <v>-1</v>
       </c>
       <c r="W233" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="234">
@@ -22072,7 +22072,7 @@
         <v>-1</v>
       </c>
       <c r="W234" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="235">
@@ -22165,7 +22165,7 @@
         <v>-1</v>
       </c>
       <c r="W235" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="236">
@@ -22258,7 +22258,7 @@
         <v>-1</v>
       </c>
       <c r="W236" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="237">
@@ -22351,7 +22351,7 @@
         <v>-1</v>
       </c>
       <c r="W237" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="238">
@@ -22444,7 +22444,7 @@
         <v>-2</v>
       </c>
       <c r="W238" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="239">
@@ -22535,7 +22535,7 @@
         <v>-1</v>
       </c>
       <c r="W239" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="240">
@@ -22628,7 +22628,7 @@
         <v>1</v>
       </c>
       <c r="W240" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="241">
@@ -22719,7 +22719,7 @@
         <v>-1</v>
       </c>
       <c r="W241" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="242">
@@ -22810,7 +22810,7 @@
         <v>0</v>
       </c>
       <c r="W242" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="243">
@@ -22903,7 +22903,7 @@
         <v>-1</v>
       </c>
       <c r="W243" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="244">
@@ -22996,7 +22996,7 @@
         <v>0</v>
       </c>
       <c r="W244" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="245">
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="W245" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="246">
@@ -23182,7 +23182,7 @@
         <v>-1</v>
       </c>
       <c r="W246" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="247">
@@ -23265,7 +23265,7 @@
         <v>0</v>
       </c>
       <c r="W247" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="248">
@@ -23358,7 +23358,7 @@
         <v>0</v>
       </c>
       <c r="W248" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="249">
@@ -23449,7 +23449,7 @@
         <v>-1</v>
       </c>
       <c r="W249" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="250">
@@ -23542,7 +23542,7 @@
         <v>-1</v>
       </c>
       <c r="W250" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="251">
@@ -23635,7 +23635,7 @@
         <v>-1</v>
       </c>
       <c r="W251" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="252">
@@ -23728,7 +23728,7 @@
         <v>0</v>
       </c>
       <c r="W252" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="253">
@@ -23821,7 +23821,7 @@
         <v>1</v>
       </c>
       <c r="W253" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="254">
@@ -23914,7 +23914,7 @@
         <v>0</v>
       </c>
       <c r="W254" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="255">
@@ -24007,7 +24007,7 @@
         <v>-1</v>
       </c>
       <c r="W255" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="256">
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="W256" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="257">
@@ -24191,7 +24191,7 @@
         <v>-1</v>
       </c>
       <c r="W257" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="258">
@@ -24282,7 +24282,7 @@
         <v>-1</v>
       </c>
       <c r="W258" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="259">
@@ -24375,7 +24375,7 @@
         <v>-1</v>
       </c>
       <c r="W259" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="260">
@@ -24466,7 +24466,7 @@
         <v>-1</v>
       </c>
       <c r="W260" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="261">
@@ -24559,7 +24559,7 @@
         <v>-2</v>
       </c>
       <c r="W261" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="262">
@@ -24652,7 +24652,7 @@
         <v>-1</v>
       </c>
       <c r="W262" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="263">
@@ -24743,7 +24743,7 @@
         <v>-1</v>
       </c>
       <c r="W263" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="264">
@@ -24834,7 +24834,7 @@
         <v>-1</v>
       </c>
       <c r="W264" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="265">
@@ -24925,7 +24925,7 @@
         <v>-1</v>
       </c>
       <c r="W265" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="266">
@@ -25018,7 +25018,7 @@
         <v>-1</v>
       </c>
       <c r="W266" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="267">
@@ -25111,7 +25111,7 @@
         <v>0</v>
       </c>
       <c r="W267" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="268">
@@ -25202,7 +25202,7 @@
         <v>-2</v>
       </c>
       <c r="W268" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="269">
@@ -25295,7 +25295,7 @@
         <v>-1</v>
       </c>
       <c r="W269" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="270">
@@ -25388,7 +25388,7 @@
         <v>-2</v>
       </c>
       <c r="W270" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="271">
@@ -25481,7 +25481,7 @@
         <v>-1</v>
       </c>
       <c r="W271" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="272">
@@ -25572,7 +25572,7 @@
         <v>0</v>
       </c>
       <c r="W272" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="273">
@@ -25663,7 +25663,7 @@
         <v>-1</v>
       </c>
       <c r="W273" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="274">
@@ -25756,7 +25756,7 @@
         <v>0</v>
       </c>
       <c r="W274" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="275">
@@ -25849,7 +25849,7 @@
         <v>-1</v>
       </c>
       <c r="W275" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="276">
@@ -25942,7 +25942,7 @@
         <v>0</v>
       </c>
       <c r="W276" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="277">
@@ -26035,7 +26035,7 @@
         <v>-2</v>
       </c>
       <c r="W277" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="278">
@@ -26128,7 +26128,7 @@
         <v>0</v>
       </c>
       <c r="W278" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="279">
@@ -26219,7 +26219,7 @@
         <v>-1</v>
       </c>
       <c r="W279" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="280">
@@ -26312,7 +26312,7 @@
         <v>0</v>
       </c>
       <c r="W280" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="281">
@@ -26403,7 +26403,7 @@
         <v>0</v>
       </c>
       <c r="W281" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="282">
@@ -26494,7 +26494,7 @@
         <v>0</v>
       </c>
       <c r="W282" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="283">
@@ -26585,7 +26585,7 @@
         <v>0</v>
       </c>
       <c r="W283" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="284">
@@ -26678,7 +26678,7 @@
         <v>0</v>
       </c>
       <c r="W284" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="285">
@@ -26771,7 +26771,7 @@
         <v>-2</v>
       </c>
       <c r="W285" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="286">
@@ -26862,7 +26862,7 @@
         <v>-1</v>
       </c>
       <c r="W286" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="287">
@@ -26953,7 +26953,7 @@
         <v>0</v>
       </c>
       <c r="W287" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="288">
@@ -27046,7 +27046,7 @@
         <v>-1</v>
       </c>
       <c r="W288" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="289">
@@ -27137,7 +27137,7 @@
         <v>0</v>
       </c>
       <c r="W289" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="290">
@@ -27230,7 +27230,7 @@
         <v>0</v>
       </c>
       <c r="W290" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="291">
@@ -27323,7 +27323,7 @@
         <v>-1</v>
       </c>
       <c r="W291" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="292">
@@ -27414,7 +27414,7 @@
         <v>-1</v>
       </c>
       <c r="W292" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="293">
@@ -27507,7 +27507,7 @@
         <v>-3</v>
       </c>
       <c r="W293" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="294">
@@ -27600,7 +27600,7 @@
         <v>-1</v>
       </c>
       <c r="W294" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="295">
@@ -27693,7 +27693,7 @@
         <v>0</v>
       </c>
       <c r="W295" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="296">
@@ -27786,7 +27786,7 @@
         <v>-2</v>
       </c>
       <c r="W296" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="297">
@@ -27879,7 +27879,7 @@
         <v>-2</v>
       </c>
       <c r="W297" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="298">
@@ -27970,7 +27970,7 @@
         <v>0</v>
       </c>
       <c r="W298" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="299">
@@ -28061,7 +28061,7 @@
         <v>-1</v>
       </c>
       <c r="W299" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="300">
@@ -28154,7 +28154,7 @@
         <v>-2</v>
       </c>
       <c r="W300" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="301">
@@ -28247,7 +28247,7 @@
         <v>-2</v>
       </c>
       <c r="W301" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="302">
@@ -28340,7 +28340,7 @@
         <v>-1</v>
       </c>
       <c r="W302" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="303">
@@ -28431,7 +28431,7 @@
         <v>-1</v>
       </c>
       <c r="W303" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="304">
@@ -28524,7 +28524,7 @@
         <v>-1</v>
       </c>
       <c r="W304" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="305">
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="W305" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="306">
@@ -28708,7 +28708,7 @@
         <v>0</v>
       </c>
       <c r="W306" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="307">
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="W307" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="308">
@@ -28892,7 +28892,7 @@
         <v>-1</v>
       </c>
       <c r="W308" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="309">
@@ -28985,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="W309" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="310">
@@ -29078,7 +29078,7 @@
         <v>-3</v>
       </c>
       <c r="W310" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="311">
@@ -29169,7 +29169,7 @@
         <v>-1</v>
       </c>
       <c r="W311" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="312">
@@ -29260,7 +29260,7 @@
         <v>-2</v>
       </c>
       <c r="W312" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="313">
@@ -29351,7 +29351,7 @@
         <v>-2</v>
       </c>
       <c r="W313" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="314">
@@ -29444,7 +29444,7 @@
         <v>-2</v>
       </c>
       <c r="W314" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="315">
@@ -29537,7 +29537,7 @@
         <v>-1</v>
       </c>
       <c r="W315" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="316">
@@ -29630,7 +29630,7 @@
         <v>-2</v>
       </c>
       <c r="W316" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="317">
@@ -29723,7 +29723,7 @@
         <v>-1</v>
       </c>
       <c r="W317" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="318">
@@ -29816,7 +29816,7 @@
         <v>0</v>
       </c>
       <c r="W318" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="319">
@@ -29909,7 +29909,7 @@
         <v>-1</v>
       </c>
       <c r="W319" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="320">
@@ -30002,7 +30002,7 @@
         <v>-1</v>
       </c>
       <c r="W320" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="321">
@@ -30095,7 +30095,7 @@
         <v>-1</v>
       </c>
       <c r="W321" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="322">
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="W322" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="323">
@@ -30279,7 +30279,7 @@
         <v>-1</v>
       </c>
       <c r="W323" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="324">
@@ -30370,7 +30370,7 @@
         <v>-1</v>
       </c>
       <c r="W324" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="325">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="W325" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="326">
@@ -30554,7 +30554,7 @@
         <v>-2</v>
       </c>
       <c r="W326" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="327">
@@ -30647,7 +30647,7 @@
         <v>0</v>
       </c>
       <c r="W327" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="328">
@@ -30740,7 +30740,7 @@
         <v>-1</v>
       </c>
       <c r="W328" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="329">
@@ -30833,7 +30833,7 @@
         <v>0</v>
       </c>
       <c r="W329" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="330">
@@ -30926,7 +30926,7 @@
         <v>-1</v>
       </c>
       <c r="W330" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="331">
@@ -31019,7 +31019,7 @@
         <v>-1</v>
       </c>
       <c r="W331" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="332">
@@ -31112,7 +31112,7 @@
         <v>-1</v>
       </c>
       <c r="W332" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="333">
@@ -31203,7 +31203,7 @@
         <v>0</v>
       </c>
       <c r="W333" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="334">
@@ -31296,7 +31296,7 @@
         <v>-2</v>
       </c>
       <c r="W334" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="335">
@@ -31389,7 +31389,7 @@
         <v>-1</v>
       </c>
       <c r="W335" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="336">
@@ -31482,7 +31482,7 @@
         <v>-1</v>
       </c>
       <c r="W336" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="337">
@@ -31575,7 +31575,7 @@
         <v>-2</v>
       </c>
       <c r="W337" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="338">
@@ -31666,7 +31666,7 @@
         <v>-2</v>
       </c>
       <c r="W338" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="339">
@@ -31759,7 +31759,7 @@
         <v>-1</v>
       </c>
       <c r="W339" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="340">
@@ -31852,7 +31852,7 @@
         <v>-1</v>
       </c>
       <c r="W340" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="341">
@@ -31943,7 +31943,7 @@
         <v>-1</v>
       </c>
       <c r="W341" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="342">
@@ -32036,7 +32036,7 @@
         <v>-1</v>
       </c>
       <c r="W342" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="343">
@@ -32127,7 +32127,7 @@
         <v>0</v>
       </c>
       <c r="W343" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="344">
@@ -32220,7 +32220,7 @@
         <v>-1</v>
       </c>
       <c r="W344" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="345">
@@ -32313,7 +32313,7 @@
         <v>-1</v>
       </c>
       <c r="W345" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="346">
@@ -32406,7 +32406,7 @@
         <v>-1</v>
       </c>
       <c r="W346" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="347">
@@ -32499,7 +32499,7 @@
         <v>-1</v>
       </c>
       <c r="W347" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="348">
@@ -32590,7 +32590,7 @@
         <v>-1</v>
       </c>
       <c r="W348" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="349">
@@ -32683,7 +32683,7 @@
         <v>-3</v>
       </c>
       <c r="W349" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="350">
@@ -32776,7 +32776,7 @@
         <v>-1</v>
       </c>
       <c r="W350" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="351">
@@ -32867,7 +32867,7 @@
         <v>-1</v>
       </c>
       <c r="W351" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="352">
@@ -32960,7 +32960,7 @@
         <v>0</v>
       </c>
       <c r="W352" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="353">
@@ -33053,7 +33053,7 @@
         <v>-1</v>
       </c>
       <c r="W353" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="354">
@@ -33146,7 +33146,7 @@
         <v>0</v>
       </c>
       <c r="W354" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="355">
@@ -33237,7 +33237,7 @@
         <v>-1</v>
       </c>
       <c r="W355" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="356">
@@ -33330,7 +33330,7 @@
         <v>-1</v>
       </c>
       <c r="W356" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="357">
@@ -33421,7 +33421,7 @@
         <v>-1</v>
       </c>
       <c r="W357" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="358">
@@ -33514,7 +33514,7 @@
         <v>-1</v>
       </c>
       <c r="W358" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="359">
@@ -33605,7 +33605,7 @@
         <v>0</v>
       </c>
       <c r="W359" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="360">
@@ -33696,7 +33696,7 @@
         <v>-1</v>
       </c>
       <c r="W360" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="361">
@@ -33787,7 +33787,7 @@
         <v>-1</v>
       </c>
       <c r="W361" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="362">
@@ -33880,7 +33880,7 @@
         <v>0</v>
       </c>
       <c r="W362" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="363">
@@ -33973,7 +33973,7 @@
         <v>0</v>
       </c>
       <c r="W363" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="364">
@@ -34064,7 +34064,7 @@
         <v>0</v>
       </c>
       <c r="W364" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="365">
@@ -34157,7 +34157,7 @@
         <v>-1</v>
       </c>
       <c r="W365" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="366">
@@ -34250,7 +34250,7 @@
         <v>0</v>
       </c>
       <c r="W366" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="367">
@@ -34343,7 +34343,7 @@
         <v>-1</v>
       </c>
       <c r="W367" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="368">
@@ -34436,7 +34436,7 @@
         <v>-2</v>
       </c>
       <c r="W368" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="369">
@@ -34527,7 +34527,7 @@
         <v>0</v>
       </c>
       <c r="W369" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="370">
@@ -34618,7 +34618,7 @@
         <v>0</v>
       </c>
       <c r="W370" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="371">
@@ -34711,7 +34711,7 @@
         <v>0</v>
       </c>
       <c r="W371" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="372">
@@ -34804,7 +34804,7 @@
         <v>0</v>
       </c>
       <c r="W372" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="373">
@@ -34897,7 +34897,7 @@
         <v>0</v>
       </c>
       <c r="W373" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="374">
@@ -34988,7 +34988,7 @@
         <v>-2</v>
       </c>
       <c r="W374" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="375">
@@ -35081,7 +35081,7 @@
         <v>-1</v>
       </c>
       <c r="W375" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="376">
@@ -35174,7 +35174,7 @@
         <v>1</v>
       </c>
       <c r="W376" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="377">
@@ -35267,7 +35267,7 @@
         <v>0</v>
       </c>
       <c r="W377" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="378">
@@ -35360,7 +35360,7 @@
         <v>-1</v>
       </c>
       <c r="W378" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="379">
@@ -35453,7 +35453,7 @@
         <v>-1</v>
       </c>
       <c r="W379" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="380">
@@ -35546,7 +35546,7 @@
         <v>0</v>
       </c>
       <c r="W380" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="381">
@@ -35637,7 +35637,7 @@
         <v>-1</v>
       </c>
       <c r="W381" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="382">
@@ -35730,7 +35730,7 @@
         <v>-1</v>
       </c>
       <c r="W382" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="383">
@@ -35823,7 +35823,7 @@
         <v>-2</v>
       </c>
       <c r="W383" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="384">
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
       <c r="W384" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="385">
@@ -36007,7 +36007,7 @@
         <v>-1</v>
       </c>
       <c r="W385" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="386">
@@ -36098,7 +36098,7 @@
         <v>0</v>
       </c>
       <c r="W386" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="387">
@@ -36191,7 +36191,7 @@
         <v>-2</v>
       </c>
       <c r="W387" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="388">
@@ -36284,7 +36284,7 @@
         <v>-3</v>
       </c>
       <c r="W388" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="389">
@@ -36375,7 +36375,7 @@
         <v>0</v>
       </c>
       <c r="W389" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="390">
@@ -36468,7 +36468,7 @@
         <v>-1</v>
       </c>
       <c r="W390" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="391">
@@ -36559,7 +36559,7 @@
         <v>-1</v>
       </c>
       <c r="W391" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="392">
@@ -36652,7 +36652,7 @@
         <v>-2</v>
       </c>
       <c r="W392" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="393">
@@ -36745,7 +36745,7 @@
         <v>0</v>
       </c>
       <c r="W393" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="394">
@@ -36838,7 +36838,7 @@
         <v>-1</v>
       </c>
       <c r="W394" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="395">
@@ -36931,7 +36931,7 @@
         <v>-1</v>
       </c>
       <c r="W395" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="396">
@@ -37024,7 +37024,7 @@
         <v>-3</v>
       </c>
       <c r="W396" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="397">
@@ -37117,7 +37117,7 @@
         <v>0</v>
       </c>
       <c r="W397" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="398">
@@ -37210,7 +37210,7 @@
         <v>-4</v>
       </c>
       <c r="W398" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="399">
@@ -37301,7 +37301,7 @@
         <v>-1</v>
       </c>
       <c r="W399" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="400">
@@ -37392,7 +37392,7 @@
         <v>0</v>
       </c>
       <c r="W400" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="401">
@@ -37485,7 +37485,7 @@
         <v>-1</v>
       </c>
       <c r="W401" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="402">
@@ -37576,7 +37576,7 @@
         <v>0</v>
       </c>
       <c r="W402" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="403">
@@ -37669,7 +37669,7 @@
         <v>0</v>
       </c>
       <c r="W403" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="404">
@@ -37760,7 +37760,7 @@
         <v>-1</v>
       </c>
       <c r="W404" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="405">
@@ -37853,7 +37853,7 @@
         <v>-1</v>
       </c>
       <c r="W405" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="406">
@@ -37944,7 +37944,7 @@
         <v>-2</v>
       </c>
       <c r="W406" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="407">
@@ -38037,7 +38037,7 @@
         <v>0</v>
       </c>
       <c r="W407" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="408">
@@ -38130,7 +38130,7 @@
         <v>-1</v>
       </c>
       <c r="W408" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="409">
@@ -38223,7 +38223,7 @@
         <v>-3</v>
       </c>
       <c r="W409" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="410">
@@ -38314,7 +38314,7 @@
         <v>0</v>
       </c>
       <c r="W410" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="411">
@@ -38407,7 +38407,7 @@
         <v>0</v>
       </c>
       <c r="W411" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="412">
@@ -38498,7 +38498,7 @@
         <v>0</v>
       </c>
       <c r="W412" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="413">
@@ -38591,7 +38591,7 @@
         <v>0</v>
       </c>
       <c r="W413" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="414">
@@ -38684,7 +38684,7 @@
         <v>-1</v>
       </c>
       <c r="W414" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="415">
@@ -38777,7 +38777,7 @@
         <v>-1</v>
       </c>
       <c r="W415" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="416">
@@ -38870,7 +38870,7 @@
         <v>-1</v>
       </c>
       <c r="W416" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="417">
@@ -38961,7 +38961,7 @@
         <v>-1</v>
       </c>
       <c r="W417" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="418">
@@ -39054,7 +39054,7 @@
         <v>-1</v>
       </c>
       <c r="W418" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="419">
@@ -39147,7 +39147,7 @@
         <v>0</v>
       </c>
       <c r="W419" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="420">
@@ -39240,7 +39240,7 @@
         <v>1</v>
       </c>
       <c r="W420" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="421">
@@ -39333,7 +39333,7 @@
         <v>-2</v>
       </c>
       <c r="W421" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="422">
@@ -39424,7 +39424,7 @@
         <v>-1</v>
       </c>
       <c r="W422" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="423">
@@ -39515,7 +39515,7 @@
         <v>-1</v>
       </c>
       <c r="W423" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="424">
@@ -39608,7 +39608,7 @@
         <v>-1</v>
       </c>
       <c r="W424" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="425">
@@ -39701,7 +39701,7 @@
         <v>0</v>
       </c>
       <c r="W425" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="426">
@@ -39794,7 +39794,7 @@
         <v>-1</v>
       </c>
       <c r="W426" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="427">
@@ -39885,7 +39885,7 @@
         <v>-1</v>
       </c>
       <c r="W427" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="428">
@@ -39976,7 +39976,7 @@
         <v>0</v>
       </c>
       <c r="W428" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="429">
@@ -40069,7 +40069,7 @@
         <v>-1</v>
       </c>
       <c r="W429" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="430">
@@ -40162,7 +40162,7 @@
         <v>0</v>
       </c>
       <c r="W430" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="431">
@@ -40255,7 +40255,7 @@
         <v>0</v>
       </c>
       <c r="W431" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="432">
@@ -40348,7 +40348,7 @@
         <v>-1</v>
       </c>
       <c r="W432" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="433">
@@ -40441,7 +40441,7 @@
         <v>-2</v>
       </c>
       <c r="W433" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="434">
@@ -40534,7 +40534,7 @@
         <v>0</v>
       </c>
       <c r="W434" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="435">
@@ -40627,7 +40627,7 @@
         <v>-2</v>
       </c>
       <c r="W435" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="436">
@@ -40720,7 +40720,7 @@
         <v>-2</v>
       </c>
       <c r="W436" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="437">
@@ -40813,7 +40813,7 @@
         <v>-1</v>
       </c>
       <c r="W437" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="438">
@@ -40904,7 +40904,7 @@
         <v>-1</v>
       </c>
       <c r="W438" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="439">
@@ -40997,7 +40997,7 @@
         <v>0</v>
       </c>
       <c r="W439" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="440">
@@ -41088,7 +41088,7 @@
         <v>-2</v>
       </c>
       <c r="W440" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="441">
@@ -41179,7 +41179,7 @@
         <v>0</v>
       </c>
       <c r="W441" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="442">
@@ -41270,7 +41270,7 @@
         <v>-2</v>
       </c>
       <c r="W442" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="443">
@@ -41363,7 +41363,7 @@
         <v>0</v>
       </c>
       <c r="W443" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="444">
@@ -41456,7 +41456,7 @@
         <v>-2</v>
       </c>
       <c r="W444" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="445">
@@ -41549,7 +41549,7 @@
         <v>0</v>
       </c>
       <c r="W445" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="446">
@@ -41640,7 +41640,7 @@
         <v>-2</v>
       </c>
       <c r="W446" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="447">
@@ -41733,7 +41733,7 @@
         <v>-1</v>
       </c>
       <c r="W447" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="448">
@@ -41824,7 +41824,7 @@
         <v>-1</v>
       </c>
       <c r="W448" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="449">
@@ -41915,7 +41915,7 @@
         <v>-2</v>
       </c>
       <c r="W449" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="450">
@@ -42006,7 +42006,7 @@
         <v>0</v>
       </c>
       <c r="W450" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="451">
@@ -42099,7 +42099,7 @@
         <v>0</v>
       </c>
       <c r="W451" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="452">
@@ -42192,7 +42192,7 @@
         <v>-1</v>
       </c>
       <c r="W452" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="453">
@@ -42285,7 +42285,7 @@
         <v>0</v>
       </c>
       <c r="W453" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="454">
@@ -42378,7 +42378,7 @@
         <v>-2</v>
       </c>
       <c r="W454" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="455">
@@ -42469,7 +42469,7 @@
         <v>-1</v>
       </c>
       <c r="W455" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="456">
@@ -42562,7 +42562,7 @@
         <v>0</v>
       </c>
       <c r="W456" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="457">
@@ -42653,7 +42653,7 @@
         <v>-1</v>
       </c>
       <c r="W457" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="458">
@@ -42746,7 +42746,7 @@
         <v>-1</v>
       </c>
       <c r="W458" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="459">
@@ -42839,7 +42839,7 @@
         <v>0</v>
       </c>
       <c r="W459" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="460">
@@ -42932,7 +42932,7 @@
         <v>0</v>
       </c>
       <c r="W460" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="461">
@@ -43023,7 +43023,7 @@
         <v>-1</v>
       </c>
       <c r="W461" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="462">
@@ -43116,7 +43116,7 @@
         <v>0</v>
       </c>
       <c r="W462" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="463">
@@ -43209,7 +43209,7 @@
         <v>0</v>
       </c>
       <c r="W463" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="464">
@@ -43302,7 +43302,7 @@
         <v>-1</v>
       </c>
       <c r="W464" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="465">
@@ -43395,7 +43395,7 @@
         <v>-1</v>
       </c>
       <c r="W465" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="466">
@@ -43488,7 +43488,7 @@
         <v>-2</v>
       </c>
       <c r="W466" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="467">
@@ -43579,7 +43579,7 @@
         <v>-1</v>
       </c>
       <c r="W467" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="468">
@@ -43672,7 +43672,7 @@
         <v>0</v>
       </c>
       <c r="W468" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="469">
@@ -43765,7 +43765,7 @@
         <v>0</v>
       </c>
       <c r="W469" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="470">
@@ -43858,7 +43858,7 @@
         <v>0</v>
       </c>
       <c r="W470" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="471">
@@ -43951,7 +43951,7 @@
         <v>-1</v>
       </c>
       <c r="W471" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="472">
@@ -44044,7 +44044,7 @@
         <v>-1</v>
       </c>
       <c r="W472" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="473">
@@ -44137,7 +44137,7 @@
         <v>-1</v>
       </c>
       <c r="W473" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="474">
@@ -44230,7 +44230,7 @@
         <v>-1</v>
       </c>
       <c r="W474" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="475">
@@ -44323,7 +44323,7 @@
         <v>-1</v>
       </c>
       <c r="W475" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="476">
@@ -44416,7 +44416,7 @@
         <v>0</v>
       </c>
       <c r="W476" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="477">
@@ -44509,7 +44509,7 @@
         <v>0</v>
       </c>
       <c r="W477" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="478">
@@ -44602,7 +44602,7 @@
         <v>-1</v>
       </c>
       <c r="W478" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="479">
@@ -44693,7 +44693,7 @@
         <v>-1</v>
       </c>
       <c r="W479" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="480">
@@ -44786,7 +44786,7 @@
         <v>-1</v>
       </c>
       <c r="W480" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="481">
@@ -44879,7 +44879,7 @@
         <v>-2</v>
       </c>
       <c r="W481" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="482">
@@ -44970,7 +44970,7 @@
         <v>-2</v>
       </c>
       <c r="W482" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="483">
@@ -45061,7 +45061,7 @@
         <v>0</v>
       </c>
       <c r="W483" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="484">
@@ -45152,7 +45152,7 @@
         <v>-1</v>
       </c>
       <c r="W484" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="485">
@@ -45245,7 +45245,7 @@
         <v>-1</v>
       </c>
       <c r="W485" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="486">
@@ -45338,7 +45338,7 @@
         <v>-1</v>
       </c>
       <c r="W486" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="487">
@@ -45429,7 +45429,7 @@
         <v>0</v>
       </c>
       <c r="W487" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="488">
@@ -45522,7 +45522,7 @@
         <v>0</v>
       </c>
       <c r="W488" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="489">
@@ -45615,7 +45615,7 @@
         <v>-2</v>
       </c>
       <c r="W489" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="490">
@@ -45706,7 +45706,7 @@
         <v>-1</v>
       </c>
       <c r="W490" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="491">
@@ -45799,7 +45799,7 @@
         <v>0</v>
       </c>
       <c r="W491" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="492">
@@ -45890,7 +45890,7 @@
         <v>-1</v>
       </c>
       <c r="W492" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="493">
@@ -45983,7 +45983,7 @@
         <v>-1</v>
       </c>
       <c r="W493" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="494">
@@ -46076,7 +46076,7 @@
         <v>0</v>
       </c>
       <c r="W494" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="495">
@@ -46167,7 +46167,7 @@
         <v>-2</v>
       </c>
       <c r="W495" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="496">
@@ -46258,7 +46258,7 @@
         <v>-2</v>
       </c>
       <c r="W496" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="497">
@@ -46349,7 +46349,7 @@
         <v>-1</v>
       </c>
       <c r="W497" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="498">
@@ -46442,7 +46442,7 @@
         <v>-1</v>
       </c>
       <c r="W498" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="499">
@@ -46533,7 +46533,7 @@
         <v>-1</v>
       </c>
       <c r="W499" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="500">
@@ -46626,7 +46626,7 @@
         <v>1</v>
       </c>
       <c r="W500" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="501">
@@ -46719,7 +46719,7 @@
         <v>-1</v>
       </c>
       <c r="W501" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="502">
@@ -46812,7 +46812,7 @@
         <v>-1</v>
       </c>
       <c r="W502" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="503">
@@ -46903,7 +46903,7 @@
         <v>0</v>
       </c>
       <c r="W503" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="504">
@@ -46996,7 +46996,7 @@
         <v>-1</v>
       </c>
       <c r="W504" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="505">
@@ -47089,7 +47089,7 @@
         <v>0</v>
       </c>
       <c r="W505" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="506">
@@ -47182,7 +47182,7 @@
         <v>0</v>
       </c>
       <c r="W506" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="507">
@@ -47275,7 +47275,7 @@
         <v>-1</v>
       </c>
       <c r="W507" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="508">
@@ -47366,7 +47366,7 @@
         <v>-1</v>
       </c>
       <c r="W508" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="509">
@@ -47459,7 +47459,7 @@
         <v>0</v>
       </c>
       <c r="W509" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="510">
@@ -47552,7 +47552,7 @@
         <v>0</v>
       </c>
       <c r="W510" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="511">
@@ -47645,7 +47645,7 @@
         <v>0</v>
       </c>
       <c r="W511" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="512">
@@ -47736,7 +47736,7 @@
         <v>0</v>
       </c>
       <c r="W512" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="513">
@@ -47829,7 +47829,7 @@
         <v>-2</v>
       </c>
       <c r="W513" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="514">
@@ -47922,7 +47922,7 @@
         <v>-2</v>
       </c>
       <c r="W514" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="515">
@@ -48015,7 +48015,7 @@
         <v>-1</v>
       </c>
       <c r="W515" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="516">
@@ -48106,7 +48106,7 @@
         <v>0</v>
       </c>
       <c r="W516" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="517">
@@ -48199,7 +48199,7 @@
         <v>-1</v>
       </c>
       <c r="W517" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="518">
@@ -48290,7 +48290,7 @@
         <v>-1</v>
       </c>
       <c r="W518" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="519">
@@ -48383,7 +48383,7 @@
         <v>-1</v>
       </c>
       <c r="W519" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="520">
@@ -48476,7 +48476,7 @@
         <v>0</v>
       </c>
       <c r="W520" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="521">
@@ -48569,7 +48569,7 @@
         <v>-1</v>
       </c>
       <c r="W521" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="522">
@@ -48662,7 +48662,7 @@
         <v>1</v>
       </c>
       <c r="W522" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="523">
@@ -48755,7 +48755,7 @@
         <v>0</v>
       </c>
       <c r="W523" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="524">
@@ -48846,7 +48846,7 @@
         <v>-1</v>
       </c>
       <c r="W524" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="525">
@@ -48937,7 +48937,7 @@
         <v>0</v>
       </c>
       <c r="W525" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="526">
@@ -49030,7 +49030,7 @@
         <v>0</v>
       </c>
       <c r="W526" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="527">
@@ -49123,7 +49123,7 @@
         <v>-1</v>
       </c>
       <c r="W527" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="528">
@@ -49216,7 +49216,7 @@
         <v>0</v>
       </c>
       <c r="W528" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="529">
@@ -49309,7 +49309,7 @@
         <v>0</v>
       </c>
       <c r="W529" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="530">
@@ -49400,7 +49400,7 @@
         <v>-2</v>
       </c>
       <c r="W530" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="531">
@@ -49493,7 +49493,7 @@
         <v>-1</v>
       </c>
       <c r="W531" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="532">
@@ -49586,7 +49586,7 @@
         <v>-1</v>
       </c>
       <c r="W532" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="533">
@@ -49677,7 +49677,7 @@
         <v>0</v>
       </c>
       <c r="W533" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="534">
@@ -49768,7 +49768,7 @@
         <v>0</v>
       </c>
       <c r="W534" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="535">
@@ -49859,7 +49859,7 @@
         <v>0</v>
       </c>
       <c r="W535" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="536">
@@ -49950,7 +49950,7 @@
         <v>-1</v>
       </c>
       <c r="W536" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="537">
@@ -50041,7 +50041,7 @@
         <v>0</v>
       </c>
       <c r="W537" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="538">
@@ -50134,7 +50134,7 @@
         <v>0</v>
       </c>
       <c r="W538" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="539">
@@ -50225,7 +50225,7 @@
         <v>0</v>
       </c>
       <c r="W539" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="540">
@@ -50316,7 +50316,7 @@
         <v>0</v>
       </c>
       <c r="W540" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="541">
@@ -50407,7 +50407,7 @@
         <v>-1</v>
       </c>
       <c r="W541" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="542">
@@ -50498,7 +50498,7 @@
         <v>-2</v>
       </c>
       <c r="W542" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="543">
@@ -50589,7 +50589,7 @@
         <v>-1</v>
       </c>
       <c r="W543" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="544">
@@ -50680,7 +50680,7 @@
         <v>0</v>
       </c>
       <c r="W544" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="545">
@@ -50773,7 +50773,7 @@
         <v>-1</v>
       </c>
       <c r="W545" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="546">
@@ -50864,7 +50864,7 @@
         <v>-1</v>
       </c>
       <c r="W546" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="547">
@@ -50957,7 +50957,7 @@
         <v>-1</v>
       </c>
       <c r="W547" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="548">
@@ -51048,7 +51048,7 @@
         <v>-1</v>
       </c>
       <c r="W548" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="549">
@@ -51141,7 +51141,7 @@
         <v>0</v>
       </c>
       <c r="W549" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="550">
@@ -51232,7 +51232,7 @@
         <v>-1</v>
       </c>
       <c r="W550" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="551">
@@ -51325,7 +51325,7 @@
         <v>0</v>
       </c>
       <c r="W551" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="552">
@@ -51418,7 +51418,7 @@
         <v>-1</v>
       </c>
       <c r="W552" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="553">
@@ -51509,7 +51509,7 @@
         <v>-2</v>
       </c>
       <c r="W553" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="554">
@@ -51602,7 +51602,7 @@
         <v>0</v>
       </c>
       <c r="W554" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="555">
@@ -51695,7 +51695,7 @@
         <v>-1</v>
       </c>
       <c r="W555" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="556">
@@ -51786,7 +51786,7 @@
         <v>-2</v>
       </c>
       <c r="W556" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="557">
@@ -51879,7 +51879,7 @@
         <v>-1</v>
       </c>
       <c r="W557" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="558">
@@ -51972,7 +51972,7 @@
         <v>-1</v>
       </c>
       <c r="W558" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="559">
@@ -52065,7 +52065,7 @@
         <v>-1</v>
       </c>
       <c r="W559" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="560">
@@ -52158,7 +52158,7 @@
         <v>3</v>
       </c>
       <c r="W560" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="561">
@@ -52251,7 +52251,7 @@
         <v>1</v>
       </c>
       <c r="W561" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="562">
@@ -52342,7 +52342,7 @@
         <v>0</v>
       </c>
       <c r="W562" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="563">
@@ -52433,7 +52433,7 @@
         <v>0</v>
       </c>
       <c r="W563" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="564">
@@ -52524,7 +52524,7 @@
         <v>0</v>
       </c>
       <c r="W564" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="565">
@@ -52617,7 +52617,7 @@
         <v>-2</v>
       </c>
       <c r="W565" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="566">
@@ -52708,7 +52708,7 @@
         <v>-1</v>
       </c>
       <c r="W566" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="567">
@@ -52801,7 +52801,7 @@
         <v>-1</v>
       </c>
       <c r="W567" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="568">
@@ -52892,7 +52892,7 @@
         <v>-1</v>
       </c>
       <c r="W568" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="569">
@@ -52985,7 +52985,7 @@
         <v>0</v>
       </c>
       <c r="W569" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="570">
@@ -53078,7 +53078,7 @@
         <v>0</v>
       </c>
       <c r="W570" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="571">
@@ -53169,7 +53169,7 @@
         <v>0</v>
       </c>
       <c r="W571" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="572">
@@ -53260,7 +53260,7 @@
         <v>-2</v>
       </c>
       <c r="W572" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="573">
@@ -53351,7 +53351,7 @@
         <v>0</v>
       </c>
       <c r="W573" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="574">
@@ -53444,7 +53444,7 @@
         <v>1</v>
       </c>
       <c r="W574" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="575">
@@ -53535,7 +53535,7 @@
         <v>0</v>
       </c>
       <c r="W575" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="576">
@@ -53628,7 +53628,7 @@
         <v>-2</v>
       </c>
       <c r="W576" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="577">
@@ -53719,7 +53719,7 @@
         <v>-2</v>
       </c>
       <c r="W577" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="578">
@@ -53810,7 +53810,7 @@
         <v>-1</v>
       </c>
       <c r="W578" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="579">
@@ -53903,7 +53903,7 @@
         <v>0</v>
       </c>
       <c r="W579" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="580">
@@ -53996,7 +53996,7 @@
         <v>-1</v>
       </c>
       <c r="W580" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="581">
@@ -54089,7 +54089,7 @@
         <v>0</v>
       </c>
       <c r="W581" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="582">
@@ -54182,7 +54182,7 @@
         <v>-1</v>
       </c>
       <c r="W582" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="583">
@@ -54275,7 +54275,7 @@
         <v>-1</v>
       </c>
       <c r="W583" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="584">
@@ -54368,7 +54368,7 @@
         <v>-1</v>
       </c>
       <c r="W584" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="585">
@@ -54461,7 +54461,7 @@
         <v>-1</v>
       </c>
       <c r="W585" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="586">
@@ -54554,7 +54554,7 @@
         <v>-1</v>
       </c>
       <c r="W586" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="587">
@@ -54645,7 +54645,7 @@
         <v>-2</v>
       </c>
       <c r="W587" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="588">
@@ -54738,7 +54738,7 @@
         <v>-2</v>
       </c>
       <c r="W588" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="589">
@@ -54829,7 +54829,7 @@
         <v>-1</v>
       </c>
       <c r="W589" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="590">
@@ -54920,7 +54920,7 @@
         <v>0</v>
       </c>
       <c r="W590" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="591">
@@ -55011,7 +55011,7 @@
         <v>-1</v>
       </c>
       <c r="W591" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="592">
@@ -55104,7 +55104,7 @@
         <v>-2</v>
       </c>
       <c r="W592" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="593">
@@ -55197,7 +55197,7 @@
         <v>-1</v>
       </c>
       <c r="W593" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="594">
@@ -55288,7 +55288,7 @@
         <v>-1</v>
       </c>
       <c r="W594" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="595">
@@ -55379,7 +55379,7 @@
         <v>0</v>
       </c>
       <c r="W595" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="596">
@@ -55472,7 +55472,7 @@
         <v>0</v>
       </c>
       <c r="W596" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="597">
@@ -55563,7 +55563,7 @@
         <v>0</v>
       </c>
       <c r="W597" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="598">
@@ -55656,7 +55656,7 @@
         <v>-1</v>
       </c>
       <c r="W598" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="599">
@@ -55747,7 +55747,7 @@
         <v>0</v>
       </c>
       <c r="W599" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="600">
@@ -55840,7 +55840,7 @@
         <v>-2</v>
       </c>
       <c r="W600" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="601">
@@ -55931,7 +55931,7 @@
         <v>-1</v>
       </c>
       <c r="W601" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="602">
@@ -56024,7 +56024,7 @@
         <v>-1</v>
       </c>
       <c r="W602" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="603">
@@ -56117,7 +56117,7 @@
         <v>-2</v>
       </c>
       <c r="W603" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="604">
@@ -56210,7 +56210,7 @@
         <v>0</v>
       </c>
       <c r="W604" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="605">
@@ -56303,7 +56303,7 @@
         <v>-2</v>
       </c>
       <c r="W605" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="606">
@@ -56396,7 +56396,7 @@
         <v>-1</v>
       </c>
       <c r="W606" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="607">
@@ -56489,7 +56489,7 @@
         <v>0</v>
       </c>
       <c r="W607" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="608">
@@ -56582,7 +56582,7 @@
         <v>0</v>
       </c>
       <c r="W608" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="609">
@@ -56675,7 +56675,7 @@
         <v>-1</v>
       </c>
       <c r="W609" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="610">
@@ -56768,7 +56768,7 @@
         <v>-1</v>
       </c>
       <c r="W610" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="611">
@@ -56861,7 +56861,7 @@
         <v>-1</v>
       </c>
       <c r="W611" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="612">
@@ -56952,7 +56952,7 @@
         <v>0</v>
       </c>
       <c r="W612" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="613">
@@ -57043,7 +57043,7 @@
         <v>-1</v>
       </c>
       <c r="W613" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="614">
@@ -57136,7 +57136,7 @@
         <v>-1</v>
       </c>
       <c r="W614" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="615">
@@ -57229,7 +57229,7 @@
         <v>0</v>
       </c>
       <c r="W615" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="616">
@@ -57322,7 +57322,7 @@
         <v>0</v>
       </c>
       <c r="W616" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="617">
@@ -57409,7 +57409,7 @@
         <v>0</v>
       </c>
       <c r="W617" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="618">
@@ -57502,7 +57502,7 @@
         <v>0</v>
       </c>
       <c r="W618" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="619">
@@ -57595,7 +57595,7 @@
         <v>-1</v>
       </c>
       <c r="W619" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="620">
@@ -57686,7 +57686,7 @@
         <v>-1</v>
       </c>
       <c r="W620" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="621">
@@ -57777,7 +57777,7 @@
         <v>0</v>
       </c>
       <c r="W621" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="622">
@@ -57868,7 +57868,7 @@
         <v>0</v>
       </c>
       <c r="W622" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="623">
@@ -57961,7 +57961,7 @@
         <v>0</v>
       </c>
       <c r="W623" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="624">
@@ -58052,7 +58052,7 @@
         <v>0</v>
       </c>
       <c r="W624" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="625">
@@ -58143,7 +58143,7 @@
         <v>0</v>
       </c>
       <c r="W625" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="626">
@@ -58234,7 +58234,7 @@
         <v>0</v>
       </c>
       <c r="W626" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="627">
@@ -58325,7 +58325,7 @@
         <v>-1</v>
       </c>
       <c r="W627" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="628">
@@ -58416,7 +58416,7 @@
         <v>-1</v>
       </c>
       <c r="W628" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="629">
@@ -58509,7 +58509,7 @@
         <v>-1</v>
       </c>
       <c r="W629" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="630">
@@ -58602,7 +58602,7 @@
         <v>-1</v>
       </c>
       <c r="W630" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="631">
@@ -58695,7 +58695,7 @@
         <v>1</v>
       </c>
       <c r="W631" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="632">
@@ -58786,7 +58786,7 @@
         <v>-1</v>
       </c>
       <c r="W632" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="633">
@@ -58879,7 +58879,7 @@
         <v>-1</v>
       </c>
       <c r="W633" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="634">
@@ -58972,7 +58972,7 @@
         <v>-1</v>
       </c>
       <c r="W634" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="635">
@@ -59065,7 +59065,7 @@
         <v>0</v>
       </c>
       <c r="W635" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="636">
@@ -59158,7 +59158,7 @@
         <v>-1</v>
       </c>
       <c r="W636" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="637">
@@ -59251,7 +59251,7 @@
         <v>1</v>
       </c>
       <c r="W637" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="638">
@@ -59344,7 +59344,7 @@
         <v>-1</v>
       </c>
       <c r="W638" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="639">
@@ -59437,7 +59437,7 @@
         <v>-1</v>
       </c>
       <c r="W639" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="640">
@@ -59528,7 +59528,7 @@
         <v>0</v>
       </c>
       <c r="W640" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="641">
@@ -59619,7 +59619,7 @@
         <v>0</v>
       </c>
       <c r="W641" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="642">
@@ -59712,7 +59712,7 @@
         <v>-1</v>
       </c>
       <c r="W642" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="643">
@@ -59803,7 +59803,7 @@
         <v>-1</v>
       </c>
       <c r="W643" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="644">
@@ -59894,7 +59894,7 @@
         <v>-1</v>
       </c>
       <c r="W644" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="645">
@@ -59985,7 +59985,7 @@
         <v>-1</v>
       </c>
       <c r="W645" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="646">
@@ -60078,7 +60078,7 @@
         <v>-1</v>
       </c>
       <c r="W646" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="647">
@@ -60171,7 +60171,7 @@
         <v>-1</v>
       </c>
       <c r="W647" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="648">
@@ -60264,7 +60264,7 @@
         <v>-1</v>
       </c>
       <c r="W648" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="649">
@@ -60357,7 +60357,7 @@
         <v>0</v>
       </c>
       <c r="W649" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="650">
@@ -60450,7 +60450,7 @@
         <v>0</v>
       </c>
       <c r="W650" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="651">
@@ -60543,7 +60543,7 @@
         <v>-1</v>
       </c>
       <c r="W651" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="652">
@@ -60636,7 +60636,7 @@
         <v>-1</v>
       </c>
       <c r="W652" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="653">
@@ -60729,7 +60729,7 @@
         <v>0</v>
       </c>
       <c r="W653" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="654">
@@ -60822,7 +60822,7 @@
         <v>0</v>
       </c>
       <c r="W654" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="655">
@@ -60913,7 +60913,7 @@
         <v>-1</v>
       </c>
       <c r="W655" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="656">
@@ -61006,7 +61006,7 @@
         <v>-1</v>
       </c>
       <c r="W656" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="657">
@@ -61099,7 +61099,7 @@
         <v>-2</v>
       </c>
       <c r="W657" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="658">
@@ -61190,7 +61190,7 @@
         <v>0</v>
       </c>
       <c r="W658" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="659">
@@ -61283,7 +61283,7 @@
         <v>0</v>
       </c>
       <c r="W659" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="660">
@@ -61374,7 +61374,7 @@
         <v>0</v>
       </c>
       <c r="W660" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="661">
@@ -61467,7 +61467,7 @@
         <v>-2</v>
       </c>
       <c r="W661" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="662">
@@ -61560,7 +61560,7 @@
         <v>0</v>
       </c>
       <c r="W662" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="663">
@@ -61653,7 +61653,7 @@
         <v>-1</v>
       </c>
       <c r="W663" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="664">
@@ -61746,7 +61746,7 @@
         <v>0</v>
       </c>
       <c r="W664" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="665">
@@ -61839,7 +61839,7 @@
         <v>-1</v>
       </c>
       <c r="W665" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="666">
@@ -61932,7 +61932,7 @@
         <v>-1</v>
       </c>
       <c r="W666" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="667">
@@ -62025,7 +62025,7 @@
         <v>0</v>
       </c>
       <c r="W667" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="668">
@@ -62116,7 +62116,7 @@
         <v>-1</v>
       </c>
       <c r="W668" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="669">
@@ -62207,7 +62207,7 @@
         <v>0</v>
       </c>
       <c r="W669" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="670">
@@ -62300,7 +62300,7 @@
         <v>-2</v>
       </c>
       <c r="W670" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="671">
@@ -62391,7 +62391,7 @@
         <v>0</v>
       </c>
       <c r="W671" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="672">
@@ -62482,7 +62482,7 @@
         <v>-1</v>
       </c>
       <c r="W672" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="673">
@@ -62573,7 +62573,7 @@
         <v>0</v>
       </c>
       <c r="W673" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="674">
@@ -62666,7 +62666,7 @@
         <v>-1</v>
       </c>
       <c r="W674" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="675">
@@ -62759,7 +62759,7 @@
         <v>0</v>
       </c>
       <c r="W675" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="676">
@@ -62852,7 +62852,7 @@
         <v>0</v>
       </c>
       <c r="W676" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="677">
@@ -62945,7 +62945,7 @@
         <v>0</v>
       </c>
       <c r="W677" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="678">
@@ -63036,7 +63036,7 @@
         <v>-2</v>
       </c>
       <c r="W678" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="679">
@@ -63127,7 +63127,7 @@
         <v>-1</v>
       </c>
       <c r="W679" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="680">
@@ -63218,7 +63218,7 @@
         <v>0</v>
       </c>
       <c r="W680" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="681">
@@ -63309,7 +63309,7 @@
         <v>0</v>
       </c>
       <c r="W681" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="682">
@@ -63400,7 +63400,7 @@
         <v>0</v>
       </c>
       <c r="W682" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="683">
@@ -63493,7 +63493,7 @@
         <v>0</v>
       </c>
       <c r="W683" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="684">
@@ -63586,7 +63586,7 @@
         <v>-1</v>
       </c>
       <c r="W684" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="685">
@@ -63679,7 +63679,7 @@
         <v>-3</v>
       </c>
       <c r="W685" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="686">
@@ -63770,7 +63770,7 @@
         <v>-1</v>
       </c>
       <c r="W686" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="687">
@@ -63863,7 +63863,7 @@
         <v>-1</v>
       </c>
       <c r="W687" s="2" t="n">
-        <v>25569.00000000002</v>
+        <v>44197</v>
       </c>
     </row>
   </sheetData>
